--- a/biology/Biochimie/David_Nachmansohn/David_Nachmansohn.xlsx
+++ b/biology/Biochimie/David_Nachmansohn/David_Nachmansohn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Nachmansohn est un biochimiste allemand né à Ekaterinoslav[1] dans l'Empire Russe (actuellement Dnipro en Ukraine) en 1899 et mort en 1983 à New York. Il est connu pour son explication du rôle de la phosphocréatine dans la production d'énergie des muscles et pour ses contributions à l'étude de l'acétylcholine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Nachmansohn est un biochimiste allemand né à Ekaterinoslav dans l'Empire Russe (actuellement Dnipro en Ukraine) en 1899 et mort en 1983 à New York. Il est connu pour son explication du rôle de la phosphocréatine dans la production d'énergie des muscles et pour ses contributions à l'étude de l'acétylcholine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David Nachmansohn est le fils de Moïse Nachmansohn, originaire de Rahatchow et de sa femme Regina Klinkowstein, de Lublin, tous deux juifs de l'empire russe. La famille émigre à Berlin et c'est là que Nachmansohn grandit. En 1918, il commence ses études supérieures à l'université de Berlin et en 1924 il obtient son diplôme de médecine.
 Il commence sa carrière de biologiste à l'institut Kaiser-Wilhelm, sous la direction d'Otto Meyerhof, en 1926.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) David Nachmansohn, Chemical and Molecular Basis of Nerve Activity (ISBN 0-3231-5102-7)</t>
         </is>
